--- a/Testdata/TC_62.xlsx
+++ b/Testdata/TC_62.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>QhwAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlkpLt9RpjBrrZESpbhiTX67wUI3JssSaHKmdoW28pkCBFmqIoik2RXtGnFAW6XbQJkO728i/B2rt96i/0zIU3Sc5a7sJYc85tzpw51zF65zoMjEsSMz+iuxW7ZlUMQt3I8+n5biXhZ1V7q/KOg7rXLgmOcIxDwoHYAC7Kdq6Zv1uZcj7bMc2rq6vaVaMWxedm3bJs88lBf+ROSYirPmUcU5dUMi7v7VwVB7W98IBw7GGOFedupTfq1drEdzsAO8AUn5O41kqYTwljXcp97hMmOGOCOWl3Dr6nDubUa1s1G5lL8JyylfiBp+hKlAqu6WBbMvZD4tQte7tqbVcb9ti2dja2dxpbtUdW/b2UMSNEfcz4iMSXvisBI47DmWS3thu2bW1sN7aQuZIIZOUGcNAg8Ibk0mfEa5MgYGtZxNQX2HQ5nHo9Y1rILPBqQQ9XYT/Gs+nY5wFZT43hQcsIqdYlF+KgvSgmLtjvQSodkqtBrM06nvUBO576MZ938HxtWceMxIOZMNJ6rA7qRJQ3AxLz4xncNfHAFQDh8DghyLwDmTN1fObCt08T4jlnOGBFphISnUTxBZthlxxCHJtCxhUNIuyBw3Gfcd9luYAlDDqKoxmIhN1bUeDtgVit4gpEJrpHwcZi31YUXSxKLyORvFZ5wXCpIeYp+RIcjabR1YAG81EyYW7sT4jXaaXUK3FIRKTmbieMRyFokYOQghUgc/gHEbgIRh3i+iEOjgKwInMaIKUEQM2ER2c+b0dBEtLMnAtQdAInGpPr1IDZEg3gcqmweUR7NCVXRCtRZYZhdJVtuYyQNiiAm8xNfWwZsUjcAVh6e8sYeSHikHt+APWheBUFaNkpRlNC+EqPUBgkUuGeqDhOay72RGYOQeCY4N0AhWRqWVXLhp+xZe3IH9g5Q6Mu9VK6jSW6FIkOk3AwgQi+lGdybMAtgBCcImgFmF4A9MTn08Nmqv0KDFJnvpN+GYcgVmcBnktwZpciDPWoGyQeUSmgR8+kTwrd1DXeiUZLoD4EtYMwnY/nM8jEzN/h8LFbgdq8w3gM1b/iuFFCeTwXuQKZmvRtPCyZULkBDu7NcxaTHybQdMz3Euq2I+/+u3nKOsfU5/fXMEpilQDvzyKtJ1JhwjpEJBWZ5u/N765zJhavRR5SEkbUd+9vbTCy0N57wEFYGlUFDvMO3+qQM5wE0NZwqD7neWFZAKMmu1ikKYLQcRykycERTSODrtH1wpoLdVV0RjU3CgXAhGbtZITMIr1oDlzSped9TM8TKL9ZAC7Cs9QkKsc4xpSJ42TVdiFLrSZCaUCrLsBRUT5IpMVUlEeAReYCHRqTcBbFODgAw/h7+n50KwFV+gDzqV5B2g+ImxrZzFkzrrJmqeJvI5P5Wx1DRIbOJwtASSTOovrTnCaHIXHKA/DfoI0DfxKr9KOVWImDC8v7pjRRicOt2UOldwAzChSm75K5aFzzhYZLl7VThHJgkXGc0XBju75pNepQ88UayRMPCQ6MLng9J0aPXhLGQ2DbMYaE+R58+TjYMd4lE+JDtZAm0vl6be4iH9pLE6JUpQn6liFlAijF5z7k22XCDJMzOKcEx8G8QKiO2o9coLv98b9vfvP81YvPbz9++ubLD/77j1+9+ufPbp59CB+3f/3bzSe/VMdUxGiMJwGRCo1b29tWYwP8LAMhYVxTNo1e4nIJOz2VvWK2RnrmkYt2t9fe77dkPsmAKbvKvaYYp+ZRki9H6hByI3mlZuoJisQZp/lJr0vYQi53xHhzScrURfxdjMoWr19+/vrln+/k1gbLmxL78ePNql2/R89i20t0Wc8ixkY1FaRDKTQ4m9V6vUC8QIOGMFvDEJDZqec5Ddt6bNUblp3lci9z5FVEiygtaYzPzQU+BWqrPiJzgeI6RUrHH0OIZGgVCoWFdtEvf/LmL09LVNq6GlKWAsrJei82M9OFFH04HBujwfGw3TXG3ZHwkxxXoFPCv4FY757FU8mpKE1w8B2DUPGeYlRgVqgY0ZlBsDs15hCJhTgsOdsqqNrogSIXtdyPo2SmbqTAkENXUGbZZCXHilwjcdKeS0knR60gV7re/P2LVQz6IJ2888ueBoowVMIoUAGvo/azf7366qNXL17cPv/5zVc/KknQ+2QTM/g5RFNxmbk9pDxdbxYg6GQkjXlhfb9QXzRQTBxHkU85c+wtOWzoFQJWW0iTv1EvhJInBUt7AXwBgt7FrHvNdWA7h8gsA0DPGYZqG+VjWQZQOTy3639++7vbX39x++nzNx/96ebjP9588unrl79/8+wPKupunz6//ekzneUXC4HURQx7qgk05MuBa4hoNETtNr5+/xcGjbgBLYeRyIz09fufFYQJRWVzkkuGli5TpKzCEmmRWfAZBVUyHUp8GYtqANqihDUyCl3Eopnv5pu8VxWiRNxJxLd642rCiBFBN/VtOEmZOGe+L59mUSX16JFVt+saq7QRR5hgVjD9fhBNoMlIEXI2XyApcX0zQ04r99vvD1rNfk6ilBjEHozylnhgEB8obSlFSemxdJW6WgECWGj83CQQrylLZMuoTHIhjZn6XeKs6Yn058Doby/N9CUK1E7iWDVEVD9zj5IZNMPp28vdePmiV+h/D1WvWuyI83WvU8bDuoCFQlhGC4DEy9SkUSpN9Zh4AlHt7KEwTb4EXOkVEMyhX7JVp3UJfWVsirzTjeMoXpl8ckxKdgCdNGQUM7d4RiPvVHXdXn5XKSBNeNmHmvz0CaMOCQhf75nXzLkPossH88Ldr8vaY4PA08Zcb/TIzJILKL51C0f5f5+6lbM14xgaK/E2tvbbdDq4DmHeXVMbdRTJKCZA2F0/Hu/5MeNPRCbQXwpymkFOVYf6RAxc6kOuTx17UwGAwCxKN0tqpqHL1V8coqDvh/6aY6GVxndZCNhyNlMtXG89TxGl5ZBcQ4NZkABJcfIDKBvq5WQdacphIZdm/OKRj/nnU76uYo8mmHhkYlXdCalXNzxru/qYkEbVtuF/7NbrlrUpngi1cMgcPrlacxMzvbD8L4HO/wA0MGnoQhwAAA==</t>
+          <t>Ox4AAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoFSe6FoS8JoA/EihSglCiJVWXkphrtDaarlLLuzK4lvKZAgRZqiKAqnSK/oU4oCdY02AVK7l38JLNl96i/0zGVvJBVrVUOAd85tzpw51yF653oaGJck4jRk2zV7zaoZhHmhT9nZdi2JJ3X7Ue0dF3WvPRIc4ghPSQzEBnAxvnXN6XbtPI5nW6Z5dXW1dtVYC6Mz07Es23yy3x9652SK65TxGDOP1DIu/+1cNRe1/ek+ibGPY6w4t2u9YW+tTajXAdg+ZviMRGuthFNGOO+ymMaUcMEZERyTdmf/e+pgrrP2aM1G5hI8p2wlNPAVXYlSwTUdbEtGdEpcx3KsurVRd9ZH1sZWw9myN9Zse/O9lDEjRH3M4yGJLqknAcMYT2eS3dpw1q2NhmNvIHMlEcjKDeCiQeAfkUvKid8mQcArWcTUF7jjxXDqasa0kFng1YIersJehGfnIxoHpCr7bhgRDwz1oL0PyNUg0vYbzfqAHZ3TKJ538LyyrGNOosFMWKMaq4s6IYt3AhLFxzO4VOLDnQPCjaOEIPMOZM7UodyDb8oS4rsTHPAiUwmJTsLogs+wRw4gYE0h44oFIfbBs2LKY+rxXMASBh1G4QxEwu6tMPB3QaxWcQUiE91jYGOxbysMLxall5FIOoF0B7jUKY5T8iU4Gp6HVwMWzIfJmHsRHRO/00qpV+KQCD3N3U54HE5BixyEFKwAmcM/CLVFMOoQj05xcBiAFbnbACklANpJ4nBC43YYJFOWmXMBik7gRCNynRowW6IBXC4TNg9Zj6XkimglqsxwFF5lWy4jpA0K4B3upT62jFgk7gAsvb1ljLwQcchdGkAhKF5FAVp2iuE5IfFKj1AYJHLerigtbmsu9kRmDkHgmODdAIWsaUHSteFvZFlb8g92ztCoy/yUbn2JLkWig2Q6GEMEX8ozuTbgFkAIThG0AswuAHpC4/ODnVT7FRikznwn/TIOQazOAjyX4MwuRRjqMS9IfKJSQI9NpE8K3dQ13olGS6A+BLWLMJuP5jNIuZxuxfCxXYMivMXjCMp8zfXChMXRXOQKZGrSt/HwZMzkBji4N88kIj9MoLuY7ybMa4f+/XfzlXWOGY3vr2GYRCoB3p9FWk+kwoR3iEgqMs3fm9+rciYeVSKfMjINGfXub20wstDef8BBeBpVBQ7zDt/qkAlOAuhfYqg+Z3lhWQCjHX6xSFMEoeMoSJODK7pDDu2h50/XPKirogVa88KpAJjQlZ0MkVmkF82BR7rsrI/ZWQLlNwvARXiWmkTlGEWYcXGcrNouZKnVRCgNaNUFuCrKB4m0mIryELDIXKBDIzKdhREO9sEwdFffj24loErv4/hcryDtB8RLjWzmrBlXWbNU8beRyfytjiEiQ+eTBaAkEmdRjWhOk8OQOOU++G/QxgEdRyr9aCVW4uDC8r4pTVTicBV7qPQOYBiBwvRdMhcdar7QcOmydopQDiwyjjs8Wt9wmlbDgZov1kie+IjgwOiC18fE6LFLwuMpsG0ZR4RTH74oDraMd8mYUKgW0kQ6X1fmLvKh3TQhSlV2QN8ypEwApfiMQr5dJswwOYN7SnAUzAuE6qj90AO62x//++Y3z1+9+Pz246dvvvzgv//41at//uzm2YfwcfvXv9188kt1TEWMRngcEKnQqLWxYTXWwc8yEBLGNWXT6CdeLGGnp7JXzNZIDzdy0e722nv9lswnGTBlV7nXFHPTPEzy5VAdQm4kr9RMPUGRuKM0P+l1CVvI5a6YYy5JmbqIv4tR2eL1y89fv/zzndzaYHlTYm9uNuu2c4+exbaX6LKeRcyHairQ06cNDU6z7jgF4gUadARDNAwBmZ16vtuwrU3LaVh2lsv9zJFXES2itKQRPjMX+BSorfqIzAWK6xQpHX8EIZKhVSgUFtpFv/zJm788LVFp62pIWQooJ+u92MxMF1L0wdHIGA6Oj9pdY9QdCj/JcQU6JfwbiPXuWTyVnIqxBAffMQgTDydGDWaFmhFODIK9c2MOkViIw5KzrYKqjR4oclHLvShMZupGCgw5dAVllk1WcqzINRIn7bmUdHLUCnKl683fv1jFoA/SyTs/92i/ZUxZ5pcShkoYBSrgddR+9q9XX3306sWL2+c/v/nqRyUJep9sYgY/h2gqLjO3h5Sn680CBJ0MpTEvrO8X6osGionjMKQs5q79SA4beoWA1RbS5P+oN4WSJwVLewF8AYLexbx7HevAdg+QWQaAnjMM1TbMx7IMoHJ4btf//PZ3t7/+4vbT528++tPNx3+8+eTT1y9//+bZH1TU3T59fvvTZzrLLxYCqYsY9lQTaMiXA88Q0WiI2m18/f4vDBbGBrQcRiIz0tfvf1YQJhSVzUkuGVq6TJGyCkukRWbBZxRUyXQo8WUsqgFoixLWyCh0EQtn1Ms3ea8uRIm4k4hv9Ub1hBMjhG7q23CSMnHOfF8+zaJK6uFjy7EdjVXaiCOMMS+Yfi8Ix9BkpAg5my+QlLi+mSGnlfvt9QetnX5OopQYRD6M8pZ4YBAfqMfTpjJ1rwIEsNDseUkgXlCWyJZRKP0qpC5Tv0VMdnyR8lwY9+2lOb5EgdpJFKkmiOk37GEygwY4fW+5Gy9f8Qo974HqT4tdcL7udcp4WBewUPzKaAGQeJmONEqlph4Xzx6qhT0QpsmXgCu9/IE59DO16q4uoZeMTJFrulEURisTTo5Jyfahe4YsYuYWz2hMsaXqtP38rlJAmuSyDzXt6ROGHRKQuPIbbsq9H14+mBfuviprjw8CXxuz2riRmSUXUHzIFo5SVZmdKIK2Sbx8VX557lN20at2etfzHafZtJrO480m9sYb48f4ESaWM/H8JmnC2ZRQMX0KEWJyEbNbtU2gWSyz53P2EUzeFaUpA0tGMYuCpWRA6sSerdEujXj8RKQo/aUgpxnkVLXOT4R+6kOuT127qQBAYBY3M0tap/klVr95hEGfTmnFedVKk1BZCLjBbKZ6y6oXCjXvgFxD51uQANl6/AOoZ+pJp4o0FVWQ5DP+VNYwGVcWZ6bMh4AXjvUw7q4PfdnDueUPCDT4PxSQnddDRfQYp2fncdV7dTY3G+QRceoQml59HRZ1qMbjuo8nm7ZlTRp+0xFPv1o4VAdKripuImoK5TBXVOczF34Cdv8HI7quuTseAAA=</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -528,7 +528,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -579,4 +579,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>16</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56075468-EBEB-48D3-AAAB-592E1D77BC7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_62.xlsx
+++ b/Testdata/TC_62.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Ox4AAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoFSe6FoS8JoA/EihSglCiJVWXkphrtDaarlLLuzK4lvKZAgRZqiKAqnSK/oU4oCdY02AVK7l38JLNl96i/0zGVvJBVrVUOAd85tzpw51yF653oaGJck4jRk2zV7zaoZhHmhT9nZdi2JJ3X7Ue0dF3WvPRIc4ghPSQzEBnAxvnXN6XbtPI5nW6Z5dXW1dtVYC6Mz07Es23yy3x9652SK65TxGDOP1DIu/+1cNRe1/ek+ibGPY6w4t2u9YW+tTajXAdg+ZviMRGuthFNGOO+ymMaUcMEZERyTdmf/e+pgrrP2aM1G5hI8p2wlNPAVXYlSwTUdbEtGdEpcx3KsurVRd9ZH1sZWw9myN9Zse/O9lDEjRH3M4yGJLqknAcMYT2eS3dpw1q2NhmNvIHMlEcjKDeCiQeAfkUvKid8mQcArWcTUF7jjxXDqasa0kFng1YIersJehGfnIxoHpCr7bhgRDwz1oL0PyNUg0vYbzfqAHZ3TKJ538LyyrGNOosFMWKMaq4s6IYt3AhLFxzO4VOLDnQPCjaOEIPMOZM7UodyDb8oS4rsTHPAiUwmJTsLogs+wRw4gYE0h44oFIfbBs2LKY+rxXMASBh1G4QxEwu6tMPB3QaxWcQUiE91jYGOxbysMLxall5FIOoF0B7jUKY5T8iU4Gp6HVwMWzIfJmHsRHRO/00qpV+KQCD3N3U54HE5BixyEFKwAmcM/CLVFMOoQj05xcBiAFbnbACklANpJ4nBC43YYJFOWmXMBik7gRCNynRowW6IBXC4TNg9Zj6XkimglqsxwFF5lWy4jpA0K4B3upT62jFgk7gAsvb1ljLwQcchdGkAhKF5FAVp2iuE5IfFKj1AYJHLerigtbmsu9kRmDkHgmODdAIWsaUHSteFvZFlb8g92ztCoy/yUbn2JLkWig2Q6GEMEX8ozuTbgFkAIThG0AswuAHpC4/ODnVT7FRikznwn/TIOQazOAjyX4MwuRRjqMS9IfKJSQI9NpE8K3dQ13olGS6A+BLWLMJuP5jNIuZxuxfCxXYMivMXjCMp8zfXChMXRXOQKZGrSt/HwZMzkBji4N88kIj9MoLuY7ybMa4f+/XfzlXWOGY3vr2GYRCoB3p9FWk+kwoR3iEgqMs3fm9+rciYeVSKfMjINGfXub20wstDef8BBeBpVBQ7zDt/qkAlOAuhfYqg+Z3lhWQCjHX6xSFMEoeMoSJODK7pDDu2h50/XPKirogVa88KpAJjQlZ0MkVmkF82BR7rsrI/ZWQLlNwvARXiWmkTlGEWYcXGcrNouZKnVRCgNaNUFuCrKB4m0mIryELDIXKBDIzKdhREO9sEwdFffj24loErv4/hcryDtB8RLjWzmrBlXWbNU8beRyfytjiEiQ+eTBaAkEmdRjWhOk8OQOOU++G/QxgEdRyr9aCVW4uDC8r4pTVTicBV7qPQOYBiBwvRdMhcdar7QcOmydopQDiwyjjs8Wt9wmlbDgZov1kie+IjgwOiC18fE6LFLwuMpsG0ZR4RTH74oDraMd8mYUKgW0kQ6X1fmLvKh3TQhSlV2QN8ypEwApfiMQr5dJswwOYN7SnAUzAuE6qj90AO62x//++Y3z1+9+Pz246dvvvzgv//41at//uzm2YfwcfvXv9188kt1TEWMRngcEKnQqLWxYTXWwc8yEBLGNWXT6CdeLGGnp7JXzNZIDzdy0e722nv9lswnGTBlV7nXFHPTPEzy5VAdQm4kr9RMPUGRuKM0P+l1CVvI5a6YYy5JmbqIv4tR2eL1y89fv/zzndzaYHlTYm9uNuu2c4+exbaX6LKeRcyHairQ06cNDU6z7jgF4gUadARDNAwBmZ16vtuwrU3LaVh2lsv9zJFXES2itKQRPjMX+BSorfqIzAWK6xQpHX8EIZKhVSgUFtpFv/zJm788LVFp62pIWQooJ+u92MxMF1L0wdHIGA6Oj9pdY9QdCj/JcQU6JfwbiPXuWTyVnIqxBAffMQgTDydGDWaFmhFODIK9c2MOkViIw5KzrYKqjR4oclHLvShMZupGCgw5dAVllk1WcqzINRIn7bmUdHLUCnKl683fv1jFoA/SyTs/92i/ZUxZ5pcShkoYBSrgddR+9q9XX3306sWL2+c/v/nqRyUJep9sYgY/h2gqLjO3h5Sn680CBJ0MpTEvrO8X6osGionjMKQs5q79SA4beoWA1RbS5P+oN4WSJwVLewF8AYLexbx7HevAdg+QWQaAnjMM1TbMx7IMoHJ4btf//PZ3t7/+4vbT528++tPNx3+8+eTT1y9//+bZH1TU3T59fvvTZzrLLxYCqYsY9lQTaMiXA88Q0WiI2m18/f4vDBbGBrQcRiIz0tfvf1YQJhSVzUkuGVq6TJGyCkukRWbBZxRUyXQo8WUsqgFoixLWyCh0EQtn1Ms3ea8uRIm4k4hv9Ub1hBMjhG7q23CSMnHOfF8+zaJK6uFjy7EdjVXaiCOMMS+Yfi8Ix9BkpAg5my+QlLi+mSGnlfvt9QetnX5OopQYRD6M8pZ4YBAfqMfTpjJ1rwIEsNDseUkgXlCWyJZRKP0qpC5Tv0VMdnyR8lwY9+2lOb5EgdpJFKkmiOk37GEygwY4fW+5Gy9f8Qo974HqT4tdcL7udcp4WBewUPzKaAGQeJmONEqlph4Xzx6qhT0QpsmXgCu9/IE59DO16q4uoZeMTJFrulEURisTTo5Jyfahe4YsYuYWz2hMsaXqtP38rlJAmuSyDzXt6ROGHRKQuPIbbsq9H14+mBfuviprjw8CXxuz2riRmSUXUHzIFo5SVZmdKIK2Sbx8VX557lN20at2etfzHafZtJrO480m9sYb48f4ESaWM/H8JmnC2ZRQMX0KEWJyEbNbtU2gWSyz53P2EUzeFaUpA0tGMYuCpWRA6sSerdEujXj8RKQo/aUgpxnkVLXOT4R+6kOuT127qQBAYBY3M0tap/klVr95hEGfTmnFedVKk1BZCLjBbKZ6y6oXCjXvgFxD51uQANl6/AOoZ+pJp4o0FVWQ5DP+VNYwGVcWZ6bMh4AXjvUw7q4PfdnDueUPCDT4PxSQnddDRfQYp2fncdV7dTY3G+QRceoQml59HRZ1qMbjuo8nm7ZlTRp+0xFPv1o4VAdKripuImoK5TBXVOczF34Cdv8HI7quuTseAAA=</t>
+          <t>QhwAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlkpLt9RpjBrrZESpbhiTX67wUI3JssSaHKmdoW28pkCBFmqIoik2RXtGnFAW6XbQJkO728i/B2rt96i/0zIU3Sc5a7sJYc85tzpw51zF65zoMjEsSMz+iuxW7ZlUMQt3I8+n5biXhZ1V7q/KOg7rXLgmOcIxDwoHYAC7Kdq6Zv1uZcj7bMc2rq6vaVaMWxedm3bJs88lBf+ROSYirPmUcU5dUMi7v7VwVB7W98IBw7GGOFedupTfq1drEdzsAO8AUn5O41kqYTwljXcp97hMmOGOCOWl3Dr6nDubUa1s1G5lL8JyylfiBp+hKlAqu6WBbMvZD4tQte7tqbVcb9ti2dja2dxpbtUdW/b2UMSNEfcz4iMSXvisBI47DmWS3thu2bW1sN7aQuZIIZOUGcNAg8Ibk0mfEa5MgYGtZxNQX2HQ5nHo9Y1rILPBqQQ9XYT/Gs+nY5wFZT43hQcsIqdYlF+KgvSgmLtjvQSodkqtBrM06nvUBO576MZ938HxtWceMxIOZMNJ6rA7qRJQ3AxLz4xncNfHAFQDh8DghyLwDmTN1fObCt08T4jlnOGBFphISnUTxBZthlxxCHJtCxhUNIuyBw3Gfcd9luYAlDDqKoxmIhN1bUeDtgVit4gpEJrpHwcZi31YUXSxKLyORvFZ5wXCpIeYp+RIcjabR1YAG81EyYW7sT4jXaaXUK3FIRKTmbieMRyFokYOQghUgc/gHEbgIRh3i+iEOjgKwInMaIKUEQM2ER2c+b0dBEtLMnAtQdAInGpPr1IDZEg3gcqmweUR7NCVXRCtRZYZhdJVtuYyQNiiAm8xNfWwZsUjcAVh6e8sYeSHikHt+APWheBUFaNkpRlNC+EqPUBgkUuGeqDhOay72RGYOQeCY4N0AhWRqWVXLhp+xZe3IH9g5Q6Mu9VK6jSW6FIkOk3AwgQi+lGdybMAtgBCcImgFmF4A9MTn08Nmqv0KDFJnvpN+GYcgVmcBnktwZpciDPWoGyQeUSmgR8+kTwrd1DXeiUZLoD4EtYMwnY/nM8jEzN/h8LFbgdq8w3gM1b/iuFFCeTwXuQKZmvRtPCyZULkBDu7NcxaTHybQdMz3Euq2I+/+u3nKOsfU5/fXMEpilQDvzyKtJ1JhwjpEJBWZ5u/N765zJhavRR5SEkbUd+9vbTCy0N57wEFYGlUFDvMO3+qQM5wE0NZwqD7neWFZAKMmu1ikKYLQcRykycERTSODrtH1wpoLdVV0RjU3CgXAhGbtZITMIr1oDlzSped9TM8TKL9ZAC7Cs9QkKsc4xpSJ42TVdiFLrSZCaUCrLsBRUT5IpMVUlEeAReYCHRqTcBbFODgAw/h7+n50KwFV+gDzqV5B2g+ImxrZzFkzrrJmqeJvI5P5Wx1DRIbOJwtASSTOovrTnCaHIXHKA/DfoI0DfxKr9KOVWImDC8v7pjRRicOt2UOldwAzChSm75K5aFzzhYZLl7VThHJgkXGc0XBju75pNepQ88UayRMPCQ6MLng9J0aPXhLGQ2DbMYaE+R58+TjYMd4lE+JDtZAm0vl6be4iH9pLE6JUpQn6liFlAijF5z7k22XCDJMzOKcEx8G8QKiO2o9coLv98b9vfvP81YvPbz9++ubLD/77j1+9+ufPbp59CB+3f/3bzSe/VMdUxGiMJwGRCo1b29tWYwP8LAMhYVxTNo1e4nIJOz2VvWK2RnrmkYt2t9fe77dkPsmAKbvKvaYYp+ZRki9H6hByI3mlZuoJisQZp/lJr0vYQi53xHhzScrURfxdjMoWr19+/vrln+/k1gbLmxL78ePNql2/R89i20t0Wc8ixkY1FaRDKTQ4m9V6vUC8QIOGMFvDEJDZqec5Ddt6bNUblp3lci9z5FVEiygtaYzPzQU+BWqrPiJzgeI6RUrHH0OIZGgVCoWFdtEvf/LmL09LVNq6GlKWAsrJei82M9OFFH04HBujwfGw3TXG3ZHwkxxXoFPCv4FY757FU8mpKE1w8B2DUPGeYlRgVqgY0ZlBsDs15hCJhTgsOdsqqNrogSIXtdyPo2SmbqTAkENXUGbZZCXHilwjcdKeS0knR60gV7re/P2LVQz6IJ2888ueBoowVMIoUAGvo/azf7366qNXL17cPv/5zVc/KknQ+2QTM/g5RFNxmbk9pDxdbxYg6GQkjXlhfb9QXzRQTBxHkU85c+wtOWzoFQJWW0iTv1EvhJInBUt7AXwBgt7FrHvNdWA7h8gsA0DPGYZqG+VjWQZQOTy3639++7vbX39x++nzNx/96ebjP9588unrl79/8+wPKupunz6//ekzneUXC4HURQx7qgk05MuBa4hoNETtNr5+/xcGjbgBLYeRyIz09fufFYQJRWVzkkuGli5TpKzCEmmRWfAZBVUyHUp8GYtqANqihDUyCl3Eopnv5pu8VxWiRNxJxLd642rCiBFBN/VtOEmZOGe+L59mUSX16JFVt+saq7QRR5hgVjD9fhBNoMlIEXI2XyApcX0zQ04r99vvD1rNfk6ilBjEHozylnhgEB8obSlFSemxdJW6WgECWGj83CQQrylLZMuoTHIhjZn6XeKs6Yn058Doby/N9CUK1E7iWDVEVD9zj5IZNMPp28vdePmiV+h/D1WvWuyI83WvU8bDuoCFQlhGC4DEy9SkUSpN9Zh4AlHt7KEwTb4EXOkVEMyhX7JVp3UJfWVsirzTjeMoXpl8ckxKdgCdNGQUM7d4RiPvVHXdXn5XKSBNeNmHmvz0CaMOCQhf75nXzLkPossH88Ldr8vaY4PA08Zcb/TIzJILKL51C0f5f5+6lbM14xgaK/E2tvbbdDq4DmHeXVMbdRTJKCZA2F0/Hu/5MeNPRCbQXwpymkFOVYf6RAxc6kOuTx17UwGAwCxKN0tqpqHL1V8coqDvh/6aY6GVxndZCNhyNlMtXG89TxGl5ZBcQ4NZkABJcfIDKBvq5WQdacphIZdm/OKRj/nnU76uYo8mmHhkYlXdCalXNzxru/qYkEbVtuF/7NbrlrUpngi1cMgcPrlacxMzvbD8L4HO/wA0MGnoQhwAAA==</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -528,7 +528,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -579,37 +579,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>16</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56075468-EBEB-48D3-AAAB-592E1D77BC7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>